--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_T_(ADNmt)/Haplogroupe_T_(ADNmt).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_T_(ADNmt)/Haplogroupe_T_(ADNmt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe T est un haplogroupe du génome mitochondrial humain (ADNmt), présent dans toute l'Europe, en Afrique du Nord, et de l'Asie centrale à la Sibérie. Il est aussi présent en Inde et dans le Nord-Ouest de la Chine (Xinjiang). Cet haplogroupe ne comporte que deux sous-clades, T1 et T2, qui se seraient séparés il y a plus de 30 000 ans. Ces deux haplogroupes ont des aires de répartition assez complémentaires.
 </t>
@@ -511,9 +523,11 @@
           <t>Archéogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilde et al. (2014) ont testé des échantillons d'ADNmt d'individus associés à la culture Yamna, la culture à l'origine de l'Indo-européen commun. Ils ont trouvé T2a1b dans la région de la moyenne Volga et en Bulgarie, et T1a à la fois dans le centre de l'Ukraine et autour du cours moyen de la Volga. La fréquence des échantillons T1a et T2 dans les échantillons de Yamna était de 14,5 %,, un pourcentage plus élevé que dans n'importe quel pays actuel et qui ne se trouve en de telles proportions que parmi les Oudmourtes de la région Volga-Oural[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilde et al. (2014) ont testé des échantillons d'ADNmt d'individus associés à la culture Yamna, la culture à l'origine de l'Indo-européen commun. Ils ont trouvé T2a1b dans la région de la moyenne Volga et en Bulgarie, et T1a à la fois dans le centre de l'Ukraine et autour du cours moyen de la Volga. La fréquence des échantillons T1a et T2 dans les échantillons de Yamna était de 14,5 % un pourcentage plus élevé que dans n'importe quel pays actuel et qui ne se trouve en de telles proportions que parmi les Oudmourtes de la région Volga-Oural.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>T1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La part de la population appartenant à l'haplogroupe T1 dépasse 8 % en Roumanie, dans la vallée du Nil et au Kurdistan.
 </t>
@@ -573,13 +589,11 @@
           <t>T2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet haplogroupe est présent dans plus de 8 % de la population dans la région de Saragosse (où T1 est sous-représenté), en Hollande, en Italie, surtout sur les rives de l'Adriatique.
-T2b
-À la fin des années 1880, des archéologues suédois ont fouillé une sépulture viking du Xe siècle richement aménagée, où ils ont découvert les restes du squelette d'un guerrier. Gisant contre une épée, le mystérieux Viking était enseveli avec tout l'équipement nécessaire pour la bataille, y compris une lance, une hache, des flèches perforantes, des boucliers, deux chevaux et des pièces de jeu, qui suggéraient aux archéologues que le Viking était un stratège militaire.
-Durant des décennies, les experts ont supposé que cette tombe contenait les restes d'un homme. Ce n'est qu'après que plusieurs enquêtes indépendantes aient révélé que le squelette était féminin que les chercheurs modernes ont tenté une analyse ADN pour être sûrs. Les chercheurs ont alors analysé des échantillons d'ADN provenant des dents et de l'os du bras du Viking, mais n'ont pas pu détecter de trace de chromosome Y : Ce guerrier était donc bien une femme. Leur travail a également révélé l'ascendance nord-européenne de la Viking et découvert que son haplogroupe mitochondrial était T2b.
-Cette guerrière viking est la descendante d'une femme ayant vécu en Europe il y a environ 10 000 ans, au début de l'Holocène.
 </t>
         </is>
       </c>
@@ -605,12 +619,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>T2b</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin des années 1880, des archéologues suédois ont fouillé une sépulture viking du Xe siècle richement aménagée, où ils ont découvert les restes du squelette d'un guerrier. Gisant contre une épée, le mystérieux Viking était enseveli avec tout l'équipement nécessaire pour la bataille, y compris une lance, une hache, des flèches perforantes, des boucliers, deux chevaux et des pièces de jeu, qui suggéraient aux archéologues que le Viking était un stratège militaire.
+Durant des décennies, les experts ont supposé que cette tombe contenait les restes d'un homme. Ce n'est qu'après que plusieurs enquêtes indépendantes aient révélé que le squelette était féminin que les chercheurs modernes ont tenté une analyse ADN pour être sûrs. Les chercheurs ont alors analysé des échantillons d'ADN provenant des dents et de l'os du bras du Viking, mais n'ont pas pu détecter de trace de chromosome Y : Ce guerrier était donc bien une femme. Leur travail a également révélé l'ascendance nord-européenne de la Viking et découvert que son haplogroupe mitochondrial était T2b.
+Cette guerrière viking est la descendante d'une femme ayant vécu en Europe il y a environ 10 000 ans, au début de l'Holocène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haplogroupe_T_(ADNmt)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(ADNmt)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cet arbre phylogénétique des sous-clades de l'haplogroupe T est basé sur l'article de van Oven 2009[2] et les recherches publiées ultérieurement[3]. Seuls les trois premiers niveaux de sous-clades (branches) sont reportés.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cet arbre phylogénétique des sous-clades de l'haplogroupe T est basé sur l'article de van Oven 2009 et les recherches publiées ultérieurement. Seuls les trois premiers niveaux de sous-clades (branches) sont reportés.
 T
 T1
 T1a
@@ -637,33 +692,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Haplogroupe_T_(ADNmt)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(ADNmt)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Porteurs célèbres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dernier Tsar russe, Nicolas II, était porteur de l'haplogroupe T2[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dernier Tsar russe, Nicolas II, était porteur de l'haplogroupe T2.
 </t>
         </is>
       </c>
